--- a/汽柴煤油2.0/eta/中石化航空煤油企业结算价Non-Trend-F0.2_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/中石化航空煤油企业结算价Non-Trend-F0.2_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-2.2537</v>
+        <v>-3.5056</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>36.2665</v>
+        <v>34.4601</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         <v>-40.5904</v>
       </c>
       <c r="C4" t="n">
-        <v>-113.856</v>
+        <v>-113.9284</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>340.2193</v>
       </c>
       <c r="C5" t="n">
-        <v>-82.1691</v>
+        <v>-81.8764</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         <v>-23.5882</v>
       </c>
       <c r="C6" t="n">
-        <v>-69.39870000000001</v>
+        <v>-68.895</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         <v>-48.7606</v>
       </c>
       <c r="C7" t="n">
-        <v>-90.7487</v>
+        <v>-90.8613</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>-318.9924</v>
       </c>
       <c r="C8" t="n">
-        <v>-263.9976</v>
+        <v>-263.1822</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         <v>-444.9687</v>
       </c>
       <c r="C9" t="n">
-        <v>-391.7619</v>
+        <v>-391.5661</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         <v>-88.43770000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>-60.656</v>
+        <v>-60.9285</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
         <v>280.7442</v>
       </c>
       <c r="C11" t="n">
-        <v>245.9756</v>
+        <v>247.0124</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         <v>-1.3414</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0238</v>
+        <v>27.7723</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         <v>-100.6128</v>
       </c>
       <c r="C13" t="n">
-        <v>-81.07729999999999</v>
+        <v>-80.40560000000001</v>
       </c>
     </row>
     <row r="14">
@@ -612,7 +612,7 @@
         <v>277.9348</v>
       </c>
       <c r="C14" t="n">
-        <v>266.7749</v>
+        <v>266.2759</v>
       </c>
     </row>
     <row r="15">
@@ -625,7 +625,7 @@
         <v>182.138</v>
       </c>
       <c r="C15" t="n">
-        <v>174.3009</v>
+        <v>174.5275</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +638,7 @@
         <v>188.8834</v>
       </c>
       <c r="C16" t="n">
-        <v>133.2047</v>
+        <v>132.9962</v>
       </c>
     </row>
     <row r="17">
@@ -651,7 +651,7 @@
         <v>-60.5258</v>
       </c>
       <c r="C17" t="n">
-        <v>-38.7599</v>
+        <v>-38.522</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +664,7 @@
         <v>53.4801</v>
       </c>
       <c r="C18" t="n">
-        <v>57.326</v>
+        <v>56.8181</v>
       </c>
     </row>
     <row r="19">
